--- a/test-data/LoginData.xlsx
+++ b/test-data/LoginData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krishna Enterprises\eclipse-workspace\selenium-automation-framework\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A96C7B6-F2AC-4276-8AA7-8FFD8E7CB5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EA7F59-CC30-4CE4-9524-8F334A1B65A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3BBFE735-D74B-4C5F-ADFC-848E42B3C272}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3BBFE735-D74B-4C5F-ADFC-848E42B3C272}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="NegativeLogin" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Username</t>
   </si>
@@ -52,6 +53,21 @@
   </si>
   <si>
     <t>problem_user</t>
+  </si>
+  <si>
+    <t>ExpectedError</t>
+  </si>
+  <si>
+    <t>wrong_pass</t>
+  </si>
+  <si>
+    <t>Epic sadface: Username and password do not match</t>
+  </si>
+  <si>
+    <t>Epic sadface: Sorry, this user has been locked out.</t>
+  </si>
+  <si>
+    <t>wrong_user</t>
   </si>
 </sst>
 </file>
@@ -419,7 +435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC5CCB1-CE39-42E6-AFE3-A40BBBA9B79E}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -464,4 +480,68 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EDB283-AB90-4C68-963E-7A8644074027}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test-data/LoginData.xlsx
+++ b/test-data/LoginData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krishna Enterprises\eclipse-workspace\selenium-automation-framework\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EA7F59-CC30-4CE4-9524-8F334A1B65A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69DC3CF-BDE2-4DD8-886A-941A5BF2189E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3BBFE735-D74B-4C5F-ADFC-848E42B3C272}"/>
   </bookViews>
@@ -61,13 +61,13 @@
     <t>wrong_pass</t>
   </si>
   <si>
-    <t>Epic sadface: Username and password do not match</t>
-  </si>
-  <si>
     <t>Epic sadface: Sorry, this user has been locked out.</t>
   </si>
   <si>
     <t>wrong_user</t>
+  </si>
+  <si>
+    <t>Epic sadface: Username and password do not match any user in this service</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,7 +516,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -527,18 +527,18 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
